--- a/Excel Here/Java.xlsx
+++ b/Excel Here/Java.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB2C5FD7-DC7A-4534-A2AC-F2B6AA9D9DB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28604697-E3FF-48F4-BC40-17365FE94431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="880" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="880" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Loops" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>static VS dynamic Array</t>
   </si>
@@ -123,15 +123,6 @@
   </si>
   <si>
     <t>Call by ref possible by passing reference variable</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>c</t>
   </si>
   <si>
     <t>Overriding</t>
@@ -1129,15 +1120,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>750</xdr:colOff>
+      <xdr:colOff>280150</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>38850</xdr:rowOff>
+      <xdr:rowOff>19800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1160,7 +1151,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7105650" y="1841500"/>
+          <a:off x="7385050" y="1866900"/>
           <a:ext cx="5372850" cy="5195050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1979,7 +1970,7 @@
   </sheetPr>
   <dimension ref="M2:M4"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
@@ -2010,7 +2001,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="N3:N5"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
@@ -2044,7 +2035,7 @@
   </sheetPr>
   <dimension ref="A3:P52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="L61" sqref="L61"/>
     </sheetView>
   </sheetViews>
@@ -2102,32 +2093,32 @@
     </row>
     <row r="47" spans="8:12" x14ac:dyDescent="0.35">
       <c r="L47" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="8:12" x14ac:dyDescent="0.35">
       <c r="L48" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49" spans="12:12" x14ac:dyDescent="0.35">
       <c r="L49" s="9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50" spans="12:12" x14ac:dyDescent="0.35">
       <c r="L50" s="9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51" spans="12:12" x14ac:dyDescent="0.35">
       <c r="L51" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="52" spans="12:12" x14ac:dyDescent="0.35">
       <c r="L52" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2144,7 +2135,7 @@
   </sheetPr>
   <dimension ref="N3:N7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
@@ -2155,12 +2146,12 @@
   <sheetData>
     <row r="3" spans="14:14" ht="18.5" x14ac:dyDescent="0.45">
       <c r="N3" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="14:14" ht="18.5" x14ac:dyDescent="0.45">
       <c r="N4" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="14:14" ht="18.5" x14ac:dyDescent="0.45">
@@ -2168,12 +2159,12 @@
     </row>
     <row r="6" spans="14:14" ht="18.5" x14ac:dyDescent="0.45">
       <c r="N6" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="14:14" ht="18.5" x14ac:dyDescent="0.45">
       <c r="N7" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2190,8 +2181,8 @@
   </sheetPr>
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2201,46 +2192,46 @@
   <sheetData>
     <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="I2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="I3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="I5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="I7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="I12" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="I13" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="I14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2262,47 +2253,47 @@
   <sheetData>
     <row r="1" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2318,7 +2309,7 @@
   </sheetPr>
   <dimension ref="L1:M7"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
@@ -2395,13 +2386,13 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -2418,7 +2409,7 @@
   </sheetPr>
   <dimension ref="H1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -2426,7 +2417,7 @@
   <sheetData>
     <row r="1" spans="8:8" ht="15.5" x14ac:dyDescent="0.35">
       <c r="H1" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2444,7 +2435,7 @@
   <dimension ref="M4:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2518,10 +2509,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="L1:N16"/>
+  <dimension ref="L5:L6"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2529,94 +2520,14 @@
     <col min="12" max="12" width="45.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="12:14" x14ac:dyDescent="0.35">
-      <c r="M1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="12:14" x14ac:dyDescent="0.35">
-      <c r="M2" t="s">
-        <v>32</v>
-      </c>
-      <c r="N2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="12:14" x14ac:dyDescent="0.35">
-      <c r="M3" t="s">
-        <v>33</v>
-      </c>
-      <c r="N3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="12:14" x14ac:dyDescent="0.35">
-      <c r="M4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="12:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="12:12" x14ac:dyDescent="0.35">
       <c r="L5" t="s">
         <v>30</v>
       </c>
-      <c r="M5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="12:14" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="12:12" x14ac:dyDescent="0.35">
       <c r="L6" t="s">
         <v>31</v>
-      </c>
-      <c r="M6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="12:14" x14ac:dyDescent="0.35">
-      <c r="M7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="12:14" x14ac:dyDescent="0.35">
-      <c r="M8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="12:14" x14ac:dyDescent="0.35">
-      <c r="M9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="12:14" x14ac:dyDescent="0.35">
-      <c r="M10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="12:14" x14ac:dyDescent="0.35">
-      <c r="M12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="12:14" x14ac:dyDescent="0.35">
-      <c r="M13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="12:14" x14ac:dyDescent="0.35">
-      <c r="M14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="12:14" x14ac:dyDescent="0.35">
-      <c r="M15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="12:14" x14ac:dyDescent="0.35">
-      <c r="M16" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
